--- a/doc/交付文档/接口列表.xlsx
+++ b/doc/交付文档/接口列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="190">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,404 @@
   </si>
   <si>
     <t>/crm/res/occupyNumPhone/{phoneNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/servicecfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceBean</t>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ServiceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editService/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeService/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeInterfaceBean</t>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;FeeInterfaceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/serviceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listServiceProperties/{serviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer serviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ServiceParamBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+服务接口方式：intf_mode
+订购模式:order_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+属性类型：service_property_type
+是否选择：service_property_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addServiceProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addServiceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceParamBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long propertyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editServiceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editServiceProperty/{propertyId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeServiceProperty/{propertyId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/feecfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Ztree&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editFee/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeFee/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+资费类型:fp_type
+资源是否可共享:res_share_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FeeCycleBean&gt;</t>
+  </si>
+  <si>
+    <t>产品配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/offerTreeData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listProduct/{categoryId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long categoryId</t>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ProductBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+产品类型:product_type
+组合产品标志:compose_tag
+集团产品标志:group_tag
+主产品标志:main_tag
+生效方式:enable_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addOffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductBean</t>
+  </si>
+  <si>
+    <t>/crm/product/editOffer/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editOffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeOffer/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联资费页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联服务页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/offerFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selOfferFee/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;FeeInterfaceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品目录树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/crm/product/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deleteOfferFee/{prodId}/{feeId}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addOfferFee/{prodId}/{feeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer prodId,Integer feeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selOfferServices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selOfferServices/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ServiceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增服务关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer prodId,Integer serviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除服务关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addOfferFee/{prodId}/{serviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/deleteOfferFee/{prodId}/{serviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listServices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,17 +981,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -898,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,12 +1321,12 @@
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.625" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.375" customWidth="1"/>
     <col min="10" max="10" width="4.875" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -962,10 +1373,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -985,8 +1396,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1012,8 +1423,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1033,8 +1444,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="12"/>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -1058,8 +1469,8 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
         <v>27</v>
@@ -1085,8 +1496,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -1110,8 +1521,8 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
         <v>34</v>
@@ -1135,8 +1546,8 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="2" t="s">
         <v>56</v>
@@ -1157,8 +1568,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="2" t="s">
         <v>55</v>
@@ -1183,8 +1594,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
         <v>54</v>
@@ -1211,8 +1622,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
         <v>69</v>
       </c>
@@ -1230,8 +1641,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1256,8 +1667,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -1273,8 +1684,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -1296,8 +1707,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -1323,8 +1734,8 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -1346,8 +1757,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="2" t="s">
         <v>42</v>
@@ -1369,8 +1780,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="2" t="s">
         <v>71</v>
@@ -1393,8 +1804,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="2" t="s">
         <v>75</v>
@@ -1410,8 +1821,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -1436,8 +1847,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="2" t="s">
         <v>50</v>
@@ -1455,8 +1866,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="2" t="s">
         <v>23</v>
@@ -1478,8 +1889,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>27</v>
@@ -1505,8 +1916,8 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="2" t="s">
         <v>32</v>
@@ -1528,8 +1939,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
@@ -1551,8 +1962,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="11" t="s">
         <v>66</v>
       </c>
@@ -1573,8 +1984,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="12"/>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -1595,15 +2006,15 @@
         <v>84</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>44110</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
         <v>27</v>
@@ -1631,8 +2042,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="12"/>
       <c r="D30" s="2" t="s">
         <v>32</v>
@@ -1657,8 +2068,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="12"/>
       <c r="D31" s="2" t="s">
         <v>90</v>
@@ -1683,10 +2094,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="10" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -1708,13 +2119,967 @@
         <v>44110</v>
       </c>
     </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="M35" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="M37" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="7">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="M40" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="M42" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" t="s">
+        <v>129</v>
+      </c>
+      <c r="M44" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="7">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="72" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="36" x14ac:dyDescent="0.15">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="C55:C72"/>
+    <mergeCell ref="B33:B72"/>
+    <mergeCell ref="A33:A72"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C12:C26"/>
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="B2:B32"/>
     <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C33:C46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/交付文档/接口列表.xlsx
+++ b/doc/交付文档/接口列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="239">
   <si>
     <t>请求方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,15 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态：sys_common_status
-产品类型:product_type
-组合产品标志:compose_tag
-集团产品标志:group_tag
-主产品标志:main_tag
-生效方式:enable_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/crm/product/addOffer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -859,194 +850,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选号页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/selPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已订购列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码预占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/releaseNumPhone/{phoneNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品资费列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品服务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询客户账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long customerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;UserBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型:cfg_id_type
+客户类型:cust_type
+支付类型:prepay_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+产品类型:product_type
+组合产品标志:compose_tag
+集团产品标志:group_tag
+主产品标志:main_tag
+生效方式:enable_tag
+网类别:net_type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询集团客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;CustGroupBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/crm/order/subscribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>String psptTypeCode,String psptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryCustomer/{psptTypeCode}/{psptId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustPersonBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long customerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/cm/queryCustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer psptTypeCode,Integer psptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerBean&lt;CustPersonBean|CustGroupBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型:cfg_id_type
-客户类型:cust_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/cm/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/selProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选号页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/selPhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已订购列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/querySubscribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer customerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;UserBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码预占</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/releaseNumPhone/{phoneNum}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品资费列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品服务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询客户账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/cm/queryUserAccount/{customerId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long customerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;AccountBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/submitSubscribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  CustomerBean
-  PhoneNumber
-  ProductId
-  AccountId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/paymentdetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  CustomerBean
-  PhoneNumber
-  ProductId
-  AccountId</t>
+    <t>/crm/order/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/download/{path}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AjaxResult&lt;Map{path:}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryCustAccount/{customerId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;AccountBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/submitSubscribe/{phoneNumber}/{productId}/{accountId}/{groupCustId}/{groupRoleId}/{prepayTag}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerBean custom,
+String phoneNumber,
+Integer productId,
+Long accountId,
+Long groupCustId,
+Long groupRoleId,
+Integer prepayTag,
+String[] filePaths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/querySubscribe/{customerID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,15 +1133,27 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1156,11 +1187,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,6 +1235,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1203,9 +1258,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,16 +1574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.625" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
@@ -1571,10 +1635,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1591,8 +1655,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1617,8 +1681,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1637,8 +1701,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1661,8 +1725,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1687,8 +1751,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1711,8 +1775,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1735,8 +1799,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1756,8 +1820,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1781,8 +1845,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1808,8 +1872,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1826,8 +1890,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1851,8 +1915,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1867,8 +1931,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1889,8 +1953,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1915,8 +1979,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1937,8 +2001,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1959,8 +2023,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
@@ -1982,8 +2046,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1998,8 +2062,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
@@ -2023,8 +2087,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2041,8 +2105,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2063,8 +2127,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2089,8 +2153,8 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2111,8 +2175,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2133,8 +2197,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2154,8 +2218,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2182,8 +2246,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2210,8 +2274,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2235,8 +2299,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>88</v>
       </c>
@@ -2260,8 +2324,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
         <v>89</v>
       </c>
@@ -2285,10 +2349,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2308,8 +2372,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2317,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>14</v>
@@ -2336,8 +2400,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
@@ -2357,8 +2421,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2382,8 +2446,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
@@ -2411,8 +2475,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
@@ -2436,8 +2500,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2525,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
@@ -2482,8 +2546,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>114</v>
       </c>
@@ -2510,8 +2574,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2531,8 +2595,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
@@ -2556,8 +2620,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2584,8 +2648,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -2609,8 +2673,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2698,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="14"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2655,8 +2719,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A48" s="14"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2683,8 +2747,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="2" t="s">
         <v>139</v>
       </c>
@@ -2705,8 +2769,8 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
@@ -2723,8 +2787,8 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="2" t="s">
         <v>21</v>
       </c>
@@ -2745,8 +2809,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2771,8 +2835,8 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -2793,8 +2857,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="2" t="s">
         <v>32</v>
       </c>
@@ -2815,8 +2879,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2833,10 +2897,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
@@ -2851,9 +2915,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+    <row r="57" spans="1:12" ht="84" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
@@ -2873,12 +2937,12 @@
         <v>149</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
@@ -2886,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>5</v>
@@ -2895,8 +2959,8 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
@@ -2904,21 +2968,21 @@
         <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
@@ -2926,16 +2990,16 @@
         <v>26</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>27</v>
@@ -2943,8 +3007,8 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
@@ -2952,21 +3016,21 @@
         <v>10</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="2" t="s">
         <v>32</v>
       </c>
@@ -2974,165 +3038,165 @@
         <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="G64" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="10" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G69" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="70" spans="1:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>14</v>
@@ -3148,187 +3212,192 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="73" spans="1:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B73" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="J73" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="25"/>
+      <c r="C74" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="D74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="G74" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B75" s="25"/>
+      <c r="C75" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="25"/>
+      <c r="C76" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B77" s="25"/>
+      <c r="C77" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B78" s="25"/>
+      <c r="C78" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B79" s="25"/>
+      <c r="C79" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C74" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C75" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C76" s="20" t="s">
+      <c r="D79" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="F79" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C77" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E77" s="3" t="s">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B80" s="25"/>
+      <c r="C80" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="D80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C78" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C79" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C80" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>90</v>
@@ -3337,120 +3406,147 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C81" s="20" t="s">
-        <v>216</v>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="25"/>
+      <c r="C81" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>233</v>
+        <v>190</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C82" s="20" t="s">
-        <v>217</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="25"/>
+      <c r="C82" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>84</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="H82" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="25"/>
+      <c r="C83" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C83" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="C84" s="20" t="s">
-        <v>229</v>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="25"/>
+      <c r="C84" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G84" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C85" s="20" t="s">
-        <v>227</v>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="25"/>
+      <c r="C85" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>228</v>
+        <v>203</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="C86" s="20" t="s">
-        <v>223</v>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="25"/>
+      <c r="C86" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G86" s="21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H86" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="96" x14ac:dyDescent="0.15">
+      <c r="B87" s="25"/>
+      <c r="C87" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B73:B87"/>
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="B55:B72"/>
     <mergeCell ref="A33:A72"/>

--- a/doc/交付文档/接口列表.xlsx
+++ b/doc/交付文档/接口列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="270">
   <si>
     <t>请求方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -898,10 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已订购列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,10 +987,6 @@
   </si>
   <si>
     <t>TableDataInfo:List&lt;CustGroupBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/subscribe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1066,6 +1058,138 @@
   </si>
   <si>
     <t>/crm/order/querySubscribe/{customerID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人开户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroupSubscribe/{customerID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroupCustomer/{psptTypeCode}/{psptId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/groupCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer prodId,Integer serviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustGroupBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加到集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long userId,Long groupId,Long accountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/addUser2Group/{userId}/{groupId}/{accountId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询集团账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long custId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;AccountBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroupAccount/{custId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/newAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/newGroupCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustGroupBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long custId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/removeGroupCustomer/{custId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1207,11 +1331,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,6 +1374,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1258,16 +1405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1574,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:B87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1635,10 +1776,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1655,8 +1796,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1681,8 +1822,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1701,8 +1842,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1725,8 +1866,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1751,8 +1892,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1775,8 +1916,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1799,8 +1940,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1820,8 +1961,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1845,8 +1986,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1872,8 +2013,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1890,8 +2031,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1915,8 +2056,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1931,8 +2072,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1953,8 +2094,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1979,8 +2120,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2001,8 +2142,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2023,8 +2164,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2046,8 +2187,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
@@ -2062,8 +2203,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
@@ -2087,8 +2228,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2105,8 +2246,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2127,8 +2268,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2153,8 +2294,8 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2175,8 +2316,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2197,8 +2338,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2218,8 +2359,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2246,8 +2387,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2274,8 +2415,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2299,8 +2440,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="2" t="s">
         <v>88</v>
       </c>
@@ -2324,8 +2465,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="10" t="s">
         <v>89</v>
       </c>
@@ -2349,10 +2490,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2372,8 +2513,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2400,8 +2541,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
@@ -2421,8 +2562,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2446,8 +2587,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
@@ -2475,8 +2616,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
@@ -2500,8 +2641,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2525,8 +2666,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
@@ -2546,8 +2687,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="2" t="s">
         <v>114</v>
       </c>
@@ -2574,8 +2715,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2595,8 +2736,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
@@ -2620,8 +2761,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2648,8 +2789,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -2673,8 +2814,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
@@ -2698,8 +2839,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2719,8 +2860,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2747,8 +2888,8 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="2" t="s">
         <v>139</v>
       </c>
@@ -2769,8 +2910,8 @@
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
@@ -2787,8 +2928,8 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="2" t="s">
         <v>21</v>
       </c>
@@ -2809,8 +2950,8 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2835,8 +2976,8 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -2857,8 +2998,8 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="2" t="s">
         <v>32</v>
       </c>
@@ -2879,8 +3020,8 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2897,8 +3038,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="2" t="s">
         <v>165</v>
       </c>
@@ -2916,8 +3057,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
@@ -2937,12 +3078,12 @@
         <v>149</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
@@ -2959,8 +3100,8 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
@@ -2981,8 +3122,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
@@ -3007,8 +3148,8 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
@@ -3029,8 +3170,8 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="2" t="s">
         <v>32</v>
       </c>
@@ -3051,8 +3192,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="10" t="s">
         <v>157</v>
       </c>
@@ -3064,8 +3205,8 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="10" t="s">
         <v>160</v>
       </c>
@@ -3086,8 +3227,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="10" t="s">
         <v>166</v>
       </c>
@@ -3105,8 +3246,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="10" t="s">
         <v>167</v>
       </c>
@@ -3127,8 +3268,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="10" t="s">
         <v>171</v>
       </c>
@@ -3149,8 +3290,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="12" t="s">
         <v>158</v>
       </c>
@@ -3165,8 +3306,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="10" t="s">
         <v>176</v>
       </c>
@@ -3187,8 +3328,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="10" t="s">
         <v>181</v>
       </c>
@@ -3212,8 +3353,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="10" t="s">
         <v>179</v>
       </c>
@@ -3227,15 +3368,15 @@
         <v>123</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="10" t="s">
         <v>182</v>
       </c>
@@ -3255,28 +3396,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B73" s="24" t="s">
-        <v>186</v>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="26"/>
+      <c r="B73" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>187</v>
+        <v>238</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>217</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="25"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="13" t="s">
         <v>189</v>
       </c>
@@ -3284,41 +3425,41 @@
         <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B75" s="18"/>
+      <c r="C75" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="25"/>
-      <c r="C75" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="H75" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="25"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="13" t="s">
         <v>192</v>
       </c>
@@ -3326,227 +3467,459 @@
         <v>10</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="25"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="25"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>194</v>
+        <v>244</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>188</v>
+        <v>123</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>197</v>
+        <v>251</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>199</v>
+        <v>123</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="25"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>203</v>
+        <v>256</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>90</v>
+        <v>123</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="25"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="26"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>203</v>
+        <v>260</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>90</v>
+        <v>262</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="25"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="26"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B84" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B85" s="18"/>
+      <c r="C85" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B86" s="18"/>
+      <c r="C86" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B87" s="18"/>
+      <c r="C87" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B88" s="18"/>
+      <c r="C88" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B89" s="18"/>
+      <c r="C89" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B90" s="18"/>
+      <c r="C90" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B91" s="18"/>
+      <c r="C91" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B92" s="18"/>
+      <c r="C92" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B93" s="18"/>
+      <c r="C93" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B94" s="18"/>
+      <c r="C94" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="5" t="s">
+      <c r="D94" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="25"/>
-      <c r="C83" s="13" t="s">
+      <c r="G94" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B95" s="18"/>
+      <c r="C95" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="25"/>
-      <c r="C84" s="13" t="s">
+      <c r="D95" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E95" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="H95" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B96" s="18"/>
+      <c r="C96" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B97" s="18"/>
+      <c r="C97" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G84" s="5" t="s">
+      <c r="F97" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="96" x14ac:dyDescent="0.15">
+      <c r="B98" s="18"/>
+      <c r="C98" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="D98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="25"/>
-      <c r="C85" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85" s="6" t="s">
+      <c r="F98" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B86" s="25"/>
-      <c r="C86" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="B87" s="25"/>
-      <c r="C87" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B73:B87"/>
+  <mergeCells count="10">
+    <mergeCell ref="B84:B98"/>
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="B55:B72"/>
     <mergeCell ref="A33:A72"/>
@@ -3555,6 +3928,7 @@
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B33:B46"/>
+    <mergeCell ref="B73:B83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/交付文档/接口列表.xlsx
+++ b/doc/交付文档/接口列表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="242" yWindow="100" windowWidth="14799" windowHeight="8013"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="269">
   <si>
     <t>请求方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,813 @@
   </si>
   <si>
     <t>初始查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/exportNumPattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ResPatternSegmentBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ResSelpriceModeBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/resPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/listPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResPhoneNumOriginBean</t>
+  </si>
+  <si>
+    <t>ResPhoneNumOriginBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ResPhoneNumOriginBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/editNumPhone/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/editNumPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String phoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/releaseNumPhone/{phoneNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/occupyNumPhone/{phoneNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/servicecfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceBean</t>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ServiceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editService/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeService/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeInterfaceBean</t>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;FeeInterfaceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/serviceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listServiceProperties/{serviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer serviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ServiceParamBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+服务接口方式：intf_mode
+订购模式:order_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+属性类型：service_property_type
+是否选择：service_property_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addServiceProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addServiceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceParamBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long propertyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editServiceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editServiceProperty/{propertyId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeServiceProperty/{propertyId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/feecfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Ztree&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editFee/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeFee/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+资费类型:fp_type
+资源是否可共享:res_share_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FeeCycleBean&gt;</t>
+  </si>
+  <si>
+    <t>产品配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/offerTreeData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listProduct/{categoryId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long categoryId</t>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ProductBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addOffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductBean</t>
+  </si>
+  <si>
+    <t>/crm/product/editOffer/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/editOffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/removeOffer/{recId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long recId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联资费页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联服务页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/offerFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selOfferFee/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;FeeInterfaceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品目录树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资费列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/crm/product/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>deleteOfferFee/{prodId}/{feeId}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addOfferFee/{prodId}/{feeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer prodId,Integer feeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selOfferServices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selOfferServices/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;ServiceBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增服务关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer prodId,Integer serviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除服务关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/addOfferFee/{prodId}/{serviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/deleteOfferFee/{prodId}/{serviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/listServices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/product/selProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选号页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/selPhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码预占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/res/releaseNumPhone/{phoneNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品资费列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品服务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询客户账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long customerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;UserBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型:cfg_id_type
+客户类型:cust_type
+支付类型:prepay_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：sys_common_status
+产品类型:product_type
+组合产品标志:compose_tag
+集团产品标志:group_tag
+主产品标志:main_tag
+生效方式:enable_tag
+网类别:net_type_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询集团客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;CustGroupBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String psptTypeCode,String psptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryCustomer/{psptTypeCode}/{psptId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustPersonBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long customerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/download/{path}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AjaxResult&lt;Map{path:}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryCustAccount/{customerId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;AccountBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/submitSubscribe/{phoneNumber}/{productId}/{accountId}/{groupCustId}/{groupRoleId}/{prepayTag}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerBean custom,
+String phoneNumber,
+Integer productId,
+Long accountId,
+Long groupCustId,
+Long groupRoleId,
+Integer prepayTag,
+String[] filePaths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/querySubscribe/{customerID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人开户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/subscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroupSubscribe/{customerID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroupCustomer/{psptTypeCode}/{psptId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/groupCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer prodId,Integer serviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustGroupBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加到集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long userId,Long groupId,Long accountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/addUser2Group/{userId}/{groupId}/{accountId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询集团账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long custId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDataInfo:List&lt;AccountBean&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/queryGroupAccount/{custId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/newAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/newGroupCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加集团客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustGroupBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long custId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crm/order/removeGroupCustomer/{custId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,873 +1138,24 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>sys_common_status</t>
+      <t>sys_normal_disable</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/crm/res/exportNumPattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资费页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ResPatternSegmentBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ResSelpriceModeBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资源类型：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">res_type
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>sys_common_status</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：sys_common_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/resPhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/listPhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResPhoneNumOriginBean</t>
-  </si>
-  <si>
-    <t>ResPhoneNumOriginBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ResPhoneNumOriginBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/editNumPhone/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String recId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/editNumPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预占</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String phoneNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/releaseNumPhone/{phoneNum}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/occupyNumPhone/{phoneNum}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/servicecfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceBean</t>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ServiceBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editService/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer recId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/removeService/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer recId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资费配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资费页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeeInterfaceBean</t>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;FeeInterfaceBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：sys_common_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/serviceProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/listServiceProperties/{serviceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer serviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ServiceParamBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：sys_common_status
-服务接口方式：intf_mode
-订购模式:order_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：sys_common_status
-属性类型：service_property_type
-是否选择：service_property_sel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addServiceProperties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addServiceProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceParamBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long propertyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editServiceProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editServiceProperty/{propertyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/removeServiceProperty/{propertyId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/feecfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Ztree&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editFee/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/removeFee/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：sys_common_status
-资费类型:fp_type
-资源是否可共享:res_share_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资费周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/listFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/listCycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;FeeCycleBean&gt;</t>
-  </si>
-  <si>
-    <t>产品配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/offer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/offerTreeData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/listProduct/{categoryId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long categoryId</t>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ProductBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addOffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductBean</t>
-  </si>
-  <si>
-    <t>/crm/product/editOffer/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/editOffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/removeOffer/{recId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long recId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long recId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联资费页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联服务页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/offerFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/selOfferFee/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;FeeInterfaceBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品目录树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资费列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/listFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/crm/product/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>deleteOfferFee/{prodId}/{feeId}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addOfferFee/{prodId}/{feeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer prodId,Integer feeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/selOfferServices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/selOfferServices/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;ServiceBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增服务关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer prodId,Integer serviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除服务关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/addOfferFee/{prodId}/{serviceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/deleteOfferFee/{prodId}/{serviceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/listServices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/product/selProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选号页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/selPhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码预占</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/res/releaseNumPhone/{phoneNum}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品资费列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品服务列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询客户账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long customerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long productId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;UserBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型:cfg_id_type
-客户类型:cust_type
-支付类型:prepay_tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：sys_common_status
-产品类型:product_type
-组合产品标志:compose_tag
-集团产品标志:group_tag
-主产品标志:main_tag
-生效方式:enable_tag
-网类别:net_type_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询集团客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;CustGroupBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String psptTypeCode,String psptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryCustomer/{psptTypeCode}/{psptId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustPersonBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long customerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/download/{path}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AjaxResult&lt;Map{path:}&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryCustAccount/{customerId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;AccountBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/submitSubscribe/{phoneNumber}/{productId}/{accountId}/{groupCustId}/{groupRoleId}/{prepayTag}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerBean custom,
-String phoneNumber,
-Integer productId,
-Long accountId,
-Long groupCustId,
-Long groupRoleId,
-Integer prepayTag,
-String[] filePaths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/querySubscribe/{customerID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人开户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/subscribe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryGroupSubscribe/{customerID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryGroupCustomer/{psptTypeCode}/{psptId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/groupCustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer prodId,Integer serviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustGroupBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加到集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long userId,Long groupId,Long accountId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/addUser2Group/{userId}/{groupId}/{accountId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询集团账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long custId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableDataInfo:List&lt;AccountBean&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/queryGroupAccount/{custId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加集团账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/newAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/newGroupCustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加集团客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustGroupBean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long custId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/crm/order/removeGroupCustomer/{custId}</t>
+    <t>状态：sys_normal_disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：res_num_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1338,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1404,9 +1365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1471,7 +1429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,10 +1461,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1538,7 +1495,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1714,14 +1670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1737,7 +1693,7 @@
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1775,11 +1731,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1795,9 +1751,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22"/>
+    <row r="3" spans="1:12" ht="37.1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1814,16 +1770,16 @@
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1841,9 +1797,9 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1865,9 +1821,9 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1891,9 +1847,9 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1915,9 +1871,9 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1939,9 +1895,9 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1960,9 +1916,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1985,9 +1941,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
@@ -2012,9 +1968,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2030,9 +1986,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:12" ht="37.1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2052,12 +2008,12 @@
         <v>68</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2071,9 +2027,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2093,9 +2049,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2119,9 +2075,9 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:12">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2141,9 +2097,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:12">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2163,9 +2119,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2173,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>58</v>
@@ -2186,11 +2142,11 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>3</v>
@@ -2202,9 +2158,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
@@ -2221,15 +2177,15 @@
         <v>45</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2245,9 +2201,9 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2267,9 +2223,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="22"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2293,9 +2249,9 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="22"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2315,9 +2271,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
@@ -2337,9 +2293,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" s="24"/>
+      <c r="B27" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2349,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>58</v>
@@ -2358,9 +2314,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
+    <row r="28" spans="1:12">
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2368,27 +2324,27 @@
         <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="L28" s="7">
         <v>44110</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
+    <row r="29" spans="1:12">
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
@@ -2396,27 +2352,27 @@
         <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="L29" s="7">
         <v>44110</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
+    <row r="30" spans="1:12">
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2424,13 +2380,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>22</v>
@@ -2439,23 +2395,23 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>22</v>
@@ -2464,23 +2420,23 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
+    <row r="32" spans="1:12">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>22</v>
@@ -2489,21 +2445,21 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>94</v>
+    <row r="33" spans="1:12">
+      <c r="A33" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>5</v>
@@ -2512,9 +2468,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
+    <row r="34" spans="1:12" ht="36.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2522,27 +2478,27 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L34" s="7">
         <v>44110</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
+    <row r="35" spans="1:12">
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
@@ -2550,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>5</v>
@@ -2561,9 +2517,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="25"/>
+    <row r="36" spans="1:12">
+      <c r="A36" s="21"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
@@ -2571,13 +2527,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>22</v>
@@ -2586,9 +2542,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:12">
+      <c r="A37" s="21"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
@@ -2596,16 +2552,16 @@
         <v>26</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>27</v>
@@ -2615,9 +2571,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="25"/>
+    <row r="38" spans="1:12">
+      <c r="A38" s="21"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
@@ -2625,13 +2581,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>22</v>
@@ -2640,9 +2596,9 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="25"/>
+    <row r="39" spans="1:12">
+      <c r="A39" s="21"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2650,13 +2606,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>22</v>
@@ -2665,20 +2621,20 @@
         <v>44110</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
+    <row r="40" spans="1:12">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -2686,37 +2642,37 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
+    <row r="41" spans="1:12" ht="60.6">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L41" s="7">
         <v>44111</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
@@ -2724,10 +2680,10 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2735,9 +2691,9 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="22"/>
+    <row r="43" spans="1:12">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
@@ -2745,13 +2701,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>22</v>
@@ -2760,9 +2716,9 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
+    <row r="44" spans="1:12">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2770,27 +2726,27 @@
         <v>26</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L44" s="7">
         <v>44111</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22"/>
+    <row r="45" spans="1:12">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
@@ -2798,13 +2754,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>22</v>
@@ -2813,9 +2769,9 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22"/>
+    <row r="46" spans="1:12">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="2" t="s">
         <v>32</v>
       </c>
@@ -2823,13 +2779,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>22</v>
@@ -2838,19 +2794,19 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="19" t="s">
-        <v>106</v>
+    <row r="47" spans="1:12">
+      <c r="A47" s="21"/>
+      <c r="B47" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>5</v>
@@ -2859,9 +2815,9 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="19"/>
+    <row r="48" spans="1:12" ht="48.5">
+      <c r="A48" s="21"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2869,49 +2825,49 @@
         <v>10</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L48" s="7">
         <v>44111</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19"/>
+    <row r="49" spans="1:12">
+      <c r="A49" s="21"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J49" s="9"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="19"/>
+    <row r="50" spans="1:12">
+      <c r="A50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
@@ -2919,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>5</v>
@@ -2927,9 +2883,9 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
-      <c r="B51" s="19"/>
+    <row r="51" spans="1:12">
+      <c r="A51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2" t="s">
         <v>21</v>
       </c>
@@ -2937,21 +2893,21 @@
         <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="19"/>
+    <row r="52" spans="1:12">
+      <c r="A52" s="21"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
@@ -2959,25 +2915,25 @@
         <v>26</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19"/>
+    <row r="53" spans="1:12">
+      <c r="A53" s="21"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
@@ -2985,21 +2941,21 @@
         <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
+    <row r="54" spans="1:12">
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="2" t="s">
         <v>32</v>
       </c>
@@ -3007,58 +2963,58 @@
         <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20" t="s">
-        <v>143</v>
+    <row r="55" spans="1:12">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+    <row r="56" spans="1:12">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="96.95">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
@@ -3066,24 +3022,24 @@
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
@@ -3091,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>5</v>
@@ -3099,9 +3055,9 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+    <row r="59" spans="1:12">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>21</v>
       </c>
@@ -3109,21 +3065,21 @@
         <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+    <row r="60" spans="1:12">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
@@ -3131,25 +3087,25 @@
         <v>26</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+    <row r="61" spans="1:12">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
@@ -3157,21 +3113,21 @@
         <v>10</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+    <row r="62" spans="1:12">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="2" t="s">
         <v>32</v>
       </c>
@@ -3179,739 +3135,739 @@
         <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+    <row r="63" spans="1:12">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="10" t="s">
+      <c r="H64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="3" t="s">
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="D65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="10" t="s">
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="F66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+    <row r="67" spans="1:10">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G69" s="6" t="s">
+    </row>
+    <row r="70" spans="1:10" ht="36.4">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J70" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
+    <row r="72" spans="1:10">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="26"/>
-      <c r="B73" s="17" t="s">
-        <v>238</v>
+    <row r="73" spans="1:10">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B74" s="18"/>
+    <row r="74" spans="1:10">
+      <c r="B74" s="19"/>
       <c r="C74" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="19"/>
+      <c r="C75" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="19"/>
+      <c r="C76" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B75" s="18"/>
-      <c r="C75" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B76" s="18"/>
-      <c r="C76" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="19"/>
+      <c r="C77" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B77" s="18"/>
-      <c r="C77" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="26"/>
-      <c r="B78" s="18"/>
+    <row r="78" spans="1:10">
+      <c r="A78" s="17"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="17"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="26"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="26"/>
-      <c r="B80" s="18"/>
+    <row r="80" spans="1:10">
+      <c r="A80" s="17"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="17"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="D81" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="26"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="26"/>
-      <c r="B82" s="18"/>
+    <row r="82" spans="1:10">
+      <c r="A82" s="17"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="26"/>
+    <row r="83" spans="1:10">
+      <c r="A83" s="17"/>
       <c r="B83" s="27"/>
       <c r="C83" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="36" x14ac:dyDescent="0.15">
-      <c r="B84" s="17" t="s">
-        <v>237</v>
+    <row r="84" spans="1:10" ht="36.4">
+      <c r="B84" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="C84" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" s="19"/>
+      <c r="C85" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="G85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="19"/>
+      <c r="C86" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="19"/>
+      <c r="C87" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="18"/>
-      <c r="C85" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="G87" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="19"/>
+      <c r="C88" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H85" s="6" t="s">
+      <c r="D88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="18"/>
-      <c r="C86" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="18"/>
-      <c r="C87" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="18"/>
-      <c r="C88" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="18"/>
+    <row r="89" spans="1:10">
+      <c r="B89" s="19"/>
       <c r="C89" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="19"/>
+      <c r="C90" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="E90" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F90" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B90" s="18"/>
-      <c r="C90" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90" s="5" t="s">
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" s="19"/>
+      <c r="C91" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="D91" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B91" s="18"/>
-      <c r="C91" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="E91" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="18"/>
+    <row r="92" spans="1:10">
+      <c r="B92" s="19"/>
       <c r="C92" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="18"/>
+    <row r="93" spans="1:10">
+      <c r="B93" s="19"/>
       <c r="C93" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="19"/>
+      <c r="C94" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="19"/>
+      <c r="C95" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="18"/>
-      <c r="C94" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="18"/>
-      <c r="C95" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="H95" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="19"/>
+      <c r="C96" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G95" s="5" t="s">
+      <c r="D96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B96" s="18"/>
-      <c r="C96" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B97" s="18"/>
+    <row r="97" spans="2:8">
+      <c r="B97" s="19"/>
       <c r="C97" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="B98" s="18"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="96.95">
+      <c r="B98" s="19"/>
       <c r="C98" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>22</v>
